--- a/medicine/Enfance/Joseph_Périgot/Joseph_Périgot.xlsx
+++ b/medicine/Enfance/Joseph_Périgot/Joseph_Périgot.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Joseph_P%C3%A9rigot</t>
+          <t>Joseph_Périgot</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Joseph Périgot, nom de plume de Pierre Legrand, né le 21 juillet 1941 à Dieppe, est un écrivain français, auteur de roman noir et de littérature d'enfance et de jeunesse.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Joseph_P%C3%A9rigot</t>
+          <t>Joseph_Périgot</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fait des études de philosophie et de sociologie puis travaille successivement comme enseignant, journaliste, formateur, animateur de quartier, imprimeur, concepteur télématique et maquettiste.
-S'inspirant du nom d'un des personnages de Marcel Proust pour choisir son pseudonyme[1], il publie en 1984 son premier roman, Le Dernier des grands romantiques dans lequel il raconte le parcours d'un chômeur obsédé sexuel dont la femme et le fils ont été assassinés[2]. En 1990, il fait paraître « un second et splendide roman noir Le Bruit du fleuve, aussi touchant par ses personnages que par son écriture »[1].
+S'inspirant du nom d'un des personnages de Marcel Proust pour choisir son pseudonyme, il publie en 1984 son premier roman, Le Dernier des grands romantiques dans lequel il raconte le parcours d'un chômeur obsédé sexuel dont la femme et le fils ont été assassinés. En 1990, il fait paraître « un second et splendide roman noir Le Bruit du fleuve, aussi touchant par ses personnages que par son écriture ».
 En 1986, il débute dans l'écriture de littérature d'enfance et participe à la création aux éditions Syros de la collection « Souris noire », dont il prend la direction pendant quelques années.
 Il est également scénariste et dialoguiste pour la télévision.
 </t>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Joseph_P%C3%A9rigot</t>
+          <t>Joseph_Périgot</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,11 +561,50 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-Le Dernier des grands romantiques, Nouvelles Éditions Oswald coll. « Néo - le miroir obscur » no 94 (1984)  (ISBN 2-7304-0291-8), réédition Actes Sud, coll. « Babel noir » no 275 (1997)  (ISBN 2-7427-1283-6)
-Le Bruit du fleuve, Calmann-Lévy (1990)  (ISBN 2-7021-1940-9), réédition LGF, coll. « Le Livre de poche » no 9682 (1993)  (ISBN 2-253-06406-8)
-Littérature d'enfance et de jeunesse
-Qui a tué Minou-Bonbon ?, Syros, coll. « Souris noire » no 1 (1986)  (ISBN 2-86738-096-0), réédition Syros, coll. « Souris noire » (1992)  (ISBN 2-86738-834-1), réédition Syros, coll. « Souris noire » (1995)  (ISBN 2-84146-145-9), réédition Syros jeunesse, coll. « Mini souris noire » no 2 (1997)  (ISBN 2-84146-406-7), réédition Syros jeunesse (2007)  (ISBN 978-2-74850-571-9)
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le Dernier des grands romantiques, Nouvelles Éditions Oswald coll. « Néo - le miroir obscur » no 94 (1984)  (ISBN 2-7304-0291-8), réédition Actes Sud, coll. « Babel noir » no 275 (1997)  (ISBN 2-7427-1283-6)
+Le Bruit du fleuve, Calmann-Lévy (1990)  (ISBN 2-7021-1940-9), réédition LGF, coll. « Le Livre de poche » no 9682 (1993)  (ISBN 2-253-06406-8)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Joseph_Périgot</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Joseph_P%C3%A9rigot</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Qui a tué Minou-Bonbon ?, Syros, coll. « Souris noire » no 1 (1986)  (ISBN 2-86738-096-0), réédition Syros, coll. « Souris noire » (1992)  (ISBN 2-86738-834-1), réédition Syros, coll. « Souris noire » (1995)  (ISBN 2-84146-145-9), réédition Syros jeunesse, coll. « Mini souris noire » no 2 (1997)  (ISBN 2-84146-406-7), réédition Syros jeunesse (2007)  (ISBN 978-2-74850-571-9)
 La Pêche aux caramels, Syros, coll. « Souris noire » no 21 (1988), réédition Syros jeunesse, coll. « Mini souris noire » no 9 (1997)  (ISBN 2-84146-441-5)
 Les Petites Lumières, Syros, coll. « Souris rose » no 8 (1989)  (ISBN 2-86738-422-2)
 Des kiwis à la menthe (1989)
@@ -576,77 +629,152 @@
 Je m'appelle Madonna, Fayard, coll. « Les Pacom » no 12 (2002)  (ISBN 2-213-61040-1)
 La Nuit du voleur et autres histoires noires, Syros jeunesse, coll. « Souris noire » (2003)  (ISBN 2-7485-0174-8)
 Hors la loi, Syros jeunesse, coll. « Les uns les autres » (2004)  (ISBN 2-7485-0257-4)
-Les Pacom - 4 histoires inédites, Littératures (2007)  (ISBN 2-916963-00-6)
-Nouvelles
-L'Embardée, dans le recueil Black Exit to 68 : 22 nouvelles sur mai, Éditions La Brèche (1988)  (ISBN 2-902524-55-2)
+Les Pacom - 4 histoires inédites, Littératures (2007)  (ISBN 2-916963-00-6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Joseph_Périgot</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Joseph_P%C3%A9rigot</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>L'Embardée, dans le recueil Black Exit to 68 : 22 nouvelles sur mai, Éditions La Brèche (1988)  (ISBN 2-902524-55-2)
 Annabelle, dans le recueil Noir de femme, Éditions Gallimard, coll. « Série noire » (1992)  (ISBN 978-2-07088-057-7)</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Joseph_P%C3%A9rigot</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Joseph_Périgot</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Joseph_P%C3%A9rigot</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Filmographie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Adaptation
-1987 : La Pêche aux caramels, épisode de la série télévisée française Souris noire, adaptation du roman éponyme
-Scénarios
-1988 : Panique au zoo, épisode de la série télévisée française Souris noire
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Adaptation</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1987 : La Pêche aux caramels, épisode de la série télévisée française Souris noire, adaptation du roman éponyme</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Joseph_Périgot</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Joseph_P%C3%A9rigot</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Scénarios</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>1988 : Panique au zoo, épisode de la série télévisée française Souris noire
 1994 : Trompe l'amour, épisode de la série télévisée française Extrême Limite
 1994 : Vendredi noir - Nature morte, téléfilm français réalisé par Péter Gárdos, adaptation d'un roman de Patrick Mosconi
 1994 : Vanessa, la petite dormeuse, épisode de la série télévisée française L'Instit</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Joseph_P%C3%A9rigot</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Joseph_Périgot</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Joseph_P%C3%A9rigot</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Prix du Polar de Radio-France et de FR3 Normandie 1984 pour Le Dernier des grands romantiques
-Prix du roman policier francophone de la ville du Mans 1991 pour Le Bruit du fleuve[3]</t>
+Prix du roman policier francophone de la ville du Mans 1991 pour Le Bruit du fleuve</t>
         </is>
       </c>
     </row>
